--- a/01-document/【柴田クリニック】カテゴリ一覧.xlsx
+++ b/01-document/【柴田クリニック】カテゴリ一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IVP-Template\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\shibata\wp-content\01-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -88,18 +88,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シミ・くすみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シワ・たるみ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クマ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>毛穴・美肌</t>
     <rPh sb="0" eb="2">
       <t>ケアナ</t>
@@ -120,10 +108,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アンチエイジング</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小顔・脂肪溶解</t>
     <rPh sb="0" eb="1">
       <t>コ</t>
@@ -156,11 +140,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>shimi</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>shiwa</t>
+    <t>シミ・くすみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>siwa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シワ・たるみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クマ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -168,10 +164,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>keana</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>saisei</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>アンチエイジング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>anti</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -181,10 +185,6 @@
   </si>
   <si>
     <t>wakiase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>keana</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -552,7 +552,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -605,39 +605,39 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -645,26 +645,26 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
